--- a/public/files/import_subscription_template.xlsx
+++ b/public/files/import_subscription_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>order_status</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>packages</t>
+  </si>
+  <si>
+    <t>sub_phone</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +445,7 @@
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +509,11 @@
       <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -528,7 +534,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -549,7 +555,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -570,7 +576,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
